--- a/EPIGseqManuscript/tables/table1.xlsx
+++ b/EPIGseqManuscript/tables/table1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="330" windowWidth="24675" windowHeight="10515"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="24675" windowHeight="10515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="22">
   <si>
     <t>Rep1</t>
   </si>
@@ -79,15 +79,25 @@
   </si>
   <si>
     <t>Group3</t>
+  </si>
+  <si>
+    <t>Group4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -102,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,12 +120,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,19 +1096,374 @@
         <v>3659</v>
       </c>
     </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>16</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1228</v>
+      </c>
+      <c r="G32" s="2">
+        <v>746</v>
+      </c>
+      <c r="H32" s="2">
+        <v>166</v>
+      </c>
+      <c r="I32" s="2">
+        <v>574</v>
+      </c>
+      <c r="J32" s="2">
+        <v>5207</v>
+      </c>
+      <c r="K32" s="2">
+        <v>25693</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1018</v>
+      </c>
+      <c r="M32" s="2">
+        <v>2622</v>
+      </c>
+      <c r="N32" s="2">
+        <v>364608</v>
+      </c>
+      <c r="O32" s="2">
+        <v>58221</v>
+      </c>
+      <c r="P32" s="2">
+        <v>210304</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>239869</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="2">
+        <v>36</v>
+      </c>
+      <c r="C33" s="2">
+        <v>328</v>
+      </c>
+      <c r="D33" s="2">
+        <v>190</v>
+      </c>
+      <c r="E33" s="2">
+        <v>178</v>
+      </c>
+      <c r="F33" s="2">
+        <v>36</v>
+      </c>
+      <c r="G33" s="2">
+        <v>4</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>2581</v>
+      </c>
+      <c r="K33" s="2">
+        <v>7068</v>
+      </c>
+      <c r="L33" s="2">
+        <v>298</v>
+      </c>
+      <c r="M33" s="2">
+        <v>17049</v>
+      </c>
+      <c r="N33" s="2">
+        <v>23</v>
+      </c>
+      <c r="O33" s="2">
+        <v>2542</v>
+      </c>
+      <c r="P33" s="2">
+        <v>799</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>931</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" customWidth="1"/>
+    <col min="4" max="17" width="5.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2">
+        <v>3</v>
+      </c>
+      <c r="M1" s="2">
+        <v>3</v>
+      </c>
+      <c r="N1" s="2">
+        <v>4</v>
+      </c>
+      <c r="O1" s="2">
+        <v>4</v>
+      </c>
+      <c r="P1" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1228</v>
+      </c>
+      <c r="G2" s="2">
+        <v>746</v>
+      </c>
+      <c r="H2" s="2">
+        <v>166</v>
+      </c>
+      <c r="I2" s="2">
+        <v>574</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5207</v>
+      </c>
+      <c r="K2" s="2">
+        <v>25693</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1018</v>
+      </c>
+      <c r="M2" s="2">
+        <v>2622</v>
+      </c>
+      <c r="N2" s="2">
+        <v>364608</v>
+      </c>
+      <c r="O2" s="2">
+        <v>58221</v>
+      </c>
+      <c r="P2" s="2">
+        <v>210304</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>239869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2">
+        <v>328</v>
+      </c>
+      <c r="D3" s="2">
+        <v>190</v>
+      </c>
+      <c r="E3" s="2">
+        <v>178</v>
+      </c>
+      <c r="F3" s="2">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2581</v>
+      </c>
+      <c r="K3" s="2">
+        <v>7068</v>
+      </c>
+      <c r="L3" s="2">
+        <v>298</v>
+      </c>
+      <c r="M3" s="2">
+        <v>17049</v>
+      </c>
+      <c r="N3" s="2">
+        <v>23</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2542</v>
+      </c>
+      <c r="P3" s="2">
+        <v>799</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>931</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
